--- a/questions_ici.xlsx
+++ b/questions_ici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haifa.meddeb\Documents\mon_app_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190ADEB-D618-4B38-AB2D-1F600BE57564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A991E6-7FCF-46FC-B508-2ADF4702E5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A31-B074-4E64-95F0-255B939C718C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,10 +549,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -560,10 +560,10 @@
     </row>
     <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -626,21 +626,21 @@
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -648,21 +648,21 @@
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -716,7 +716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -748,7 +748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -765,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE382E33-4CFA-4DA4-B55E-2E9750046A45}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -819,7 +819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>76</v>
       </c>

--- a/questions_ici.xlsx
+++ b/questions_ici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haifa.meddeb\Documents\mon_app_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A991E6-7FCF-46FC-B508-2ADF4702E5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBCCDA-8748-42AB-8DBD-603933AFE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>axe</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>L’innovation est ancrée dans les réflexes du groupe.</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A31-B074-4E64-95F0-255B939C718C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,145 +549,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE382E33-4CFA-4DA4-B55E-2E9750046A45}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -779,16 +779,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -799,10 +799,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/questions_ici.xlsx
+++ b/questions_ici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haifa.meddeb\Documents\mon_app_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBCCDA-8748-42AB-8DBD-603933AFE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74514828-41B1-404D-8332-FA0E2022322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>niveau</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>Culture prudente</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A31-B074-4E64-95F0-255B939C718C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE382E33-4CFA-4DA4-B55E-2E9750046A45}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,8 +787,8 @@
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
+      <c r="D1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -799,10 +799,10 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/questions_ici.xlsx
+++ b/questions_ici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haifa.meddeb\Documents\mon_app_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74514828-41B1-404D-8332-FA0E2022322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C050D0E-59ED-495B-A49C-9686988384BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>axe</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>poids</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A31-B074-4E64-95F0-255B939C718C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +550,7 @@
     <col min="3" max="3" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +560,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -568,8 +574,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -579,8 +588,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,8 +602,11 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -601,8 +616,11 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -612,8 +630,11 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -623,8 +644,11 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -634,8 +658,11 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -645,8 +672,11 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -656,8 +686,11 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -667,8 +700,11 @@
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -678,8 +714,11 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -688,6 +727,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE382E33-4CFA-4DA4-B55E-2E9750046A45}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/questions_ici.xlsx
+++ b/questions_ici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haifa.meddeb\Documents\mon_app_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C050D0E-59ED-495B-A49C-9686988384BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204FFC5A-3EA0-4FEB-A033-C24696A740B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{72E2B6FB-D2E5-4025-BAC7-E6FF4FCE5448}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>axe</t>
   </si>
@@ -174,13 +174,19 @@
   </si>
   <si>
     <t>poids</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>test insertion question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B771A31-B074-4E64-95F0-255B939C718C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +744,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
